--- a/data/trans_dic/P1435_2011_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1435_2011_2023-Provincia-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.01077471009692629</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.03975044704703296</v>
+        <v>0.03975044704703297</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007845185124395299</v>
+        <v>0.006594436506955324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007349024496131665</v>
+        <v>0.007262027189181012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04199288568477812</v>
+        <v>0.0434975457253469</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003710685493887783</v>
+        <v>0.003814364087496135</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02770625199858872</v>
+        <v>0.02769375023016634</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01769936256265417</v>
+        <v>0.01665877938791555</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03864526561229933</v>
+        <v>0.03413907414558046</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04370343601644434</v>
+        <v>0.0405982992181104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08494443529756396</v>
+        <v>0.08563645084720886</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02339384167385835</v>
+        <v>0.02222583300337763</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05642452029696653</v>
+        <v>0.05389628276461012</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002077066484634169</v>
+        <v>0.001954347307225412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004236344740995493</v>
+        <v>0.003584669324507691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02565993427427387</v>
+        <v>0.02638574476935451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0503459908737808</v>
+        <v>0.05077572675095764</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0172686436257806</v>
+        <v>0.01628906142700839</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03029195266822354</v>
+        <v>0.03042260469843078</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02060677094513124</v>
+        <v>0.0182053351258412</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02640057787501154</v>
+        <v>0.02618966151094649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06437974985474951</v>
+        <v>0.0659945327298372</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09103628300405973</v>
+        <v>0.09054265651211246</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03879834883224983</v>
+        <v>0.03817732204587981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05344012089440017</v>
+        <v>0.05440028866405575</v>
       </c>
     </row>
     <row r="10">
@@ -800,19 +800,19 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.008290162288734184</v>
+        <v>0.008936467846816414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02015661144222831</v>
+        <v>0.019944943933832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05413082880887373</v>
+        <v>0.05478651815291773</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01028885124105077</v>
+        <v>0.01018437308858489</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03607748530216119</v>
+        <v>0.03576739847037045</v>
       </c>
     </row>
     <row r="12">
@@ -824,19 +824,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.03570846841600286</v>
+        <v>0.03569739118152215</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06965765280618996</v>
+        <v>0.06481791144293191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09627153682397301</v>
+        <v>0.1043443318938273</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03502544567568584</v>
+        <v>0.03448746099230861</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06474525128626644</v>
+        <v>0.06245972957058443</v>
       </c>
     </row>
     <row r="13">
@@ -860,13 +860,13 @@
         <v>0.0595946859308766</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08002223335343209</v>
+        <v>0.08002223335343212</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03421996456960311</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04394571302901476</v>
+        <v>0.04394571302901474</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002454786064501322</v>
+        <v>0.002464078056392614</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04092524464944896</v>
+        <v>0.03886317569881553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05965490257532215</v>
+        <v>0.0600509966199439</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02350140320010571</v>
+        <v>0.02226097082286376</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03258404864679474</v>
+        <v>0.03258856587965193</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02318988858475259</v>
+        <v>0.02050361512298212</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0101920901133271</v>
+        <v>0.010950992257382</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0855527886389271</v>
+        <v>0.08336919766298086</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1038851179442331</v>
+        <v>0.1027017867236119</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05064079833306744</v>
+        <v>0.04852930036507316</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05787973047337555</v>
+        <v>0.05779336540655376</v>
       </c>
     </row>
     <row r="16">
@@ -942,7 +942,7 @@
         <v>0.04693577139544674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07775620939653743</v>
+        <v>0.07775620939653742</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02384650027593704</v>
@@ -960,19 +960,19 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.006312328209368857</v>
+        <v>0.00596624890683902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02377821792624705</v>
+        <v>0.02377981367371942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05580740581152945</v>
+        <v>0.05737545939936522</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01224868792830236</v>
+        <v>0.01203530181362858</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03585177223476217</v>
+        <v>0.03588790726834579</v>
       </c>
     </row>
     <row r="18">
@@ -984,19 +984,19 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04817317379027012</v>
+        <v>0.05763511877665166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07970865385443582</v>
+        <v>0.08413757247842357</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1020176251508</v>
+        <v>0.1055747705927349</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04309277158006331</v>
+        <v>0.04418977234166531</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06678885130129247</v>
+        <v>0.06656816631673136</v>
       </c>
     </row>
     <row r="19">
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.005094988217812014</v>
+        <v>0.005868006019057985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01460943181136072</v>
+        <v>0.01420275563066845</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08181141265022777</v>
+        <v>0.08575306439592116</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008817314543912044</v>
+        <v>0.007656692481959574</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04653692777442348</v>
+        <v>0.04638860364368168</v>
       </c>
     </row>
     <row r="21">
@@ -1063,22 +1063,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01856617924278699</v>
+        <v>0.0187146702757458</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02882044910671746</v>
+        <v>0.03188404983914898</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06247991925818064</v>
+        <v>0.05528824171652795</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1368416825055418</v>
+        <v>0.1391227456473352</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03176499734140398</v>
+        <v>0.02999670036165612</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07604847952983528</v>
+        <v>0.07492941799570449</v>
       </c>
     </row>
     <row r="22">
@@ -1102,7 +1102,7 @@
         <v>0.03988803250208042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1377924313903544</v>
+        <v>0.1377924313903543</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.02189939835319186</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01383386389169795</v>
+        <v>0.01381373495912905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02530087388408351</v>
+        <v>0.02586140751632456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1154338419431524</v>
+        <v>0.1169885815773692</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01418011192484344</v>
+        <v>0.01478120317899704</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06937611516332404</v>
+        <v>0.07110763235307889</v>
       </c>
     </row>
     <row r="24">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01068789961692632</v>
+        <v>0.0116377262140719</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04403700114866112</v>
+        <v>0.04507413907920083</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05895462106431933</v>
+        <v>0.05741258988788046</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1617421546550898</v>
+        <v>0.1624327741422752</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03169936419206463</v>
+        <v>0.03195056162359758</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09797479999066531</v>
+        <v>0.09849102593398541</v>
       </c>
     </row>
     <row r="25">
@@ -1184,7 +1184,7 @@
         <v>0.02078273372844924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.07857160102104527</v>
+        <v>0.07857160102104528</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.01068149598164323</v>
@@ -1202,19 +1202,19 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.01149531311371884</v>
+        <v>0.01070014478711121</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01220039394433338</v>
+        <v>0.01174443565118118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06364403916615273</v>
+        <v>0.06389852626421269</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.006518210164948318</v>
+        <v>0.006418068281824401</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04094653493174137</v>
+        <v>0.04061124764418412</v>
       </c>
     </row>
     <row r="27">
@@ -1226,19 +1226,19 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.0310756139698839</v>
+        <v>0.03126451362709018</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03379339499512105</v>
+        <v>0.03227845548535613</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09751614107028146</v>
+        <v>0.09593101907863676</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01716706959091628</v>
+        <v>0.01773605425876914</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05948862927110674</v>
+        <v>0.06022238501505105</v>
       </c>
     </row>
     <row r="28">
@@ -1268,7 +1268,7 @@
         <v>0.01972301731157295</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.05418584235746003</v>
+        <v>0.05418584235746004</v>
       </c>
     </row>
     <row r="29">
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.001491578273639765</v>
+        <v>0.001716578031794266</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01307910664804666</v>
+        <v>0.01292171140740438</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03031351410243513</v>
+        <v>0.02933460762380806</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08238241973365806</v>
+        <v>0.08201249575828187</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01634237886347341</v>
+        <v>0.01672798016321282</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04950379783797668</v>
+        <v>0.04967170854434656</v>
       </c>
     </row>
     <row r="30">
@@ -1305,22 +1305,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.005531209871870509</v>
+        <v>0.005514111529546365</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02225775972019574</v>
+        <v>0.02221713547901617</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0431308977332567</v>
+        <v>0.0424681292849714</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0986508367853601</v>
+        <v>0.0978358412500507</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02318444070138259</v>
+        <v>0.02361650007887983</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05938354879180969</v>
+        <v>0.05916804130358666</v>
       </c>
     </row>
     <row r="31">
@@ -1514,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2501</v>
+        <v>2103</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2111</v>
+        <v>2086</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13272</v>
+        <v>13748</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2160</v>
+        <v>2220</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17591</v>
+        <v>17583</v>
       </c>
     </row>
     <row r="7">
@@ -1537,22 +1537,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5217</v>
+        <v>4910</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12322</v>
+        <v>10885</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12554</v>
+        <v>11662</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26848</v>
+        <v>27066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13615</v>
+        <v>12935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35824</v>
+        <v>34219</v>
       </c>
     </row>
     <row r="8">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1050</v>
+        <v>988</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2244</v>
+        <v>1899</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13440</v>
+        <v>13820</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27479</v>
+        <v>27714</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17774</v>
+        <v>16766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>32578</v>
+        <v>32719</v>
       </c>
     </row>
     <row r="11">
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10417</v>
+        <v>9203</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13983</v>
+        <v>13872</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33720</v>
+        <v>34566</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49688</v>
+        <v>49419</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39935</v>
+        <v>39296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57473</v>
+        <v>58506</v>
       </c>
     </row>
     <row r="12">
@@ -1728,19 +1728,19 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>2620</v>
+        <v>2824</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6874</v>
+        <v>6802</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19291</v>
+        <v>19525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6843</v>
+        <v>6773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24258</v>
+        <v>24049</v>
       </c>
     </row>
     <row r="15">
@@ -1752,19 +1752,19 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11284</v>
+        <v>11280</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23755</v>
+        <v>22104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34309</v>
+        <v>37186</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23294</v>
+        <v>22936</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43533</v>
+        <v>41996</v>
       </c>
     </row>
     <row r="16">
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15918</v>
+        <v>15116</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25172</v>
+        <v>25339</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17930</v>
+        <v>16984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25908</v>
+        <v>25911</v>
       </c>
     </row>
     <row r="19">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8673</v>
+        <v>7668</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3803</v>
+        <v>4086</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33276</v>
+        <v>32427</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43835</v>
+        <v>43336</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>38636</v>
+        <v>37025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46021</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="20">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1298</v>
+        <v>1227</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12637</v>
+        <v>12992</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5294</v>
+        <v>5202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>15492</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="23">
@@ -1964,19 +1964,19 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>9908</v>
+        <v>11854</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17503</v>
+        <v>18476</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23101</v>
+        <v>23907</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18625</v>
+        <v>19099</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28860</v>
+        <v>28765</v>
       </c>
     </row>
     <row r="24">
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1379</v>
+        <v>1589</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4091</v>
+        <v>3977</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21525</v>
+        <v>22562</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4885</v>
+        <v>4242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>24842</v>
+        <v>24763</v>
       </c>
     </row>
     <row r="27">
@@ -2069,22 +2069,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5087</v>
+        <v>5127</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7802</v>
+        <v>8631</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17496</v>
+        <v>15482</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>36003</v>
+        <v>36603</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17598</v>
+        <v>16619</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40595</v>
+        <v>39998</v>
       </c>
     </row>
     <row r="28">
@@ -2154,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9929</v>
+        <v>9914</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17555</v>
+        <v>17944</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>88796</v>
+        <v>89992</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19237</v>
+        <v>20053</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>103160</v>
+        <v>105734</v>
       </c>
     </row>
     <row r="31">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7084</v>
+        <v>7713</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31606</v>
+        <v>32351</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>40906</v>
+        <v>39836</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>124419</v>
+        <v>124950</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>43005</v>
+        <v>43345</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>145685</v>
+        <v>146452</v>
       </c>
     </row>
     <row r="32">
@@ -2260,19 +2260,19 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>9174</v>
+        <v>8539</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10051</v>
+        <v>9676</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>52812</v>
+        <v>53023</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>10448</v>
+        <v>10288</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>66656</v>
+        <v>66110</v>
       </c>
     </row>
     <row r="35">
@@ -2284,19 +2284,19 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>24801</v>
+        <v>24951</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27841</v>
+        <v>26593</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>80919</v>
+        <v>79603</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>27518</v>
+        <v>28430</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>96840</v>
+        <v>98034</v>
       </c>
     </row>
     <row r="36">
@@ -2363,22 +2363,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5111</v>
+        <v>5882</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>46167</v>
+        <v>45611</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>107865</v>
+        <v>104382</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>307187</v>
+        <v>305808</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>114153</v>
+        <v>116846</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>359328</v>
+        <v>360547</v>
       </c>
     </row>
     <row r="39">
@@ -2389,22 +2389,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>18954</v>
+        <v>18896</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>78566</v>
+        <v>78422</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>153473</v>
+        <v>151115</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>367849</v>
+        <v>364810</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>161945</v>
+        <v>164963</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>431042</v>
+        <v>429477</v>
       </c>
     </row>
     <row r="40">
